--- a/Code/Results/Cases/Case_0_107/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_107/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1324893633469202</v>
+        <v>0.1891520658211192</v>
       </c>
       <c r="D2">
-        <v>0.05027874866837578</v>
+        <v>0.03931962701445002</v>
       </c>
       <c r="E2">
-        <v>0.0664902258960538</v>
+        <v>0.1208682022721383</v>
       </c>
       <c r="F2">
-        <v>0.5908185950601279</v>
+        <v>0.9328533913881643</v>
       </c>
       <c r="G2">
-        <v>0.0007989204620507666</v>
+        <v>0.002453768097947433</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5153647706503151</v>
+        <v>0.9373883885711152</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.637948209601348</v>
+        <v>0.9945855932279528</v>
       </c>
       <c r="L2">
-        <v>0.06992642768343771</v>
+        <v>0.1487661459673681</v>
       </c>
       <c r="M2">
-        <v>0.6195954282642688</v>
+        <v>0.3441175607624842</v>
       </c>
       <c r="N2">
-        <v>0.8377808212954889</v>
+        <v>1.344281385537869</v>
       </c>
       <c r="O2">
-        <v>1.754769366258472</v>
+        <v>3.299978809398993</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1208192820501637</v>
+        <v>0.1870229643982242</v>
       </c>
       <c r="D3">
-        <v>0.04611275652847979</v>
+        <v>0.03785575005071706</v>
       </c>
       <c r="E3">
-        <v>0.06250009753370378</v>
+        <v>0.1206388702552061</v>
       </c>
       <c r="F3">
-        <v>0.5526469432719736</v>
+        <v>0.9312951537723677</v>
       </c>
       <c r="G3">
-        <v>0.000803050801493265</v>
+        <v>0.002456560600396716</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4892838275484905</v>
+        <v>0.9386655667246231</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.293755352854646</v>
+        <v>0.8910802721925393</v>
       </c>
       <c r="L3">
-        <v>0.06753014025629867</v>
+        <v>0.149282967225389</v>
       </c>
       <c r="M3">
-        <v>0.5401406696371467</v>
+        <v>0.3219362935698129</v>
       </c>
       <c r="N3">
-        <v>0.8522167711098732</v>
+        <v>1.352335726754973</v>
       </c>
       <c r="O3">
-        <v>1.677727282272087</v>
+        <v>3.309875331244683</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.113776641326865</v>
+        <v>0.1857942192809929</v>
       </c>
       <c r="D4">
-        <v>0.04354485828336152</v>
+        <v>0.03694852640041546</v>
       </c>
       <c r="E4">
-        <v>0.06014423077453301</v>
+        <v>0.1205543960241826</v>
       </c>
       <c r="F4">
-        <v>0.5304189683064564</v>
+        <v>0.9309331599552593</v>
       </c>
       <c r="G4">
-        <v>0.0008056722385858101</v>
+        <v>0.00245836768979845</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4743262926833651</v>
+        <v>0.9399985151810881</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.082671465401177</v>
+        <v>0.8275414444452167</v>
       </c>
       <c r="L4">
-        <v>0.06618668820642526</v>
+        <v>0.1496738887258466</v>
       </c>
       <c r="M4">
-        <v>0.4915612163139471</v>
+        <v>0.3084097340383778</v>
       </c>
       <c r="N4">
-        <v>0.8620736661682784</v>
+        <v>1.357769693075021</v>
       </c>
       <c r="O4">
-        <v>1.634395004667681</v>
+        <v>3.317962324230137</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1109357288154911</v>
+        <v>0.185313306601202</v>
       </c>
       <c r="D5">
-        <v>0.04249576498217067</v>
+        <v>0.03657673512703496</v>
       </c>
       <c r="E5">
-        <v>0.05920663835020079</v>
+        <v>0.1205341549926278</v>
       </c>
       <c r="F5">
-        <v>0.5216471656732438</v>
+        <v>0.930935135522077</v>
       </c>
       <c r="G5">
-        <v>0.0008067623479898101</v>
+        <v>0.002459127417911109</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.46848209946792</v>
+        <v>0.940679658659576</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.996689511698946</v>
+        <v>0.8016539523775918</v>
       </c>
       <c r="L5">
-        <v>0.06566984749074578</v>
+        <v>0.1498517011964893</v>
       </c>
       <c r="M5">
-        <v>0.4718085736506197</v>
+        <v>0.3029212375434724</v>
       </c>
       <c r="N5">
-        <v>0.8663327742037836</v>
+        <v>1.360107106320804</v>
       </c>
       <c r="O5">
-        <v>1.617681066105234</v>
+        <v>3.321763091946536</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1104656974501808</v>
+        <v>0.1852346498189803</v>
       </c>
       <c r="D6">
-        <v>0.0423213994193361</v>
+        <v>0.03651487385069174</v>
       </c>
       <c r="E6">
-        <v>0.05905227285965786</v>
+        <v>0.12053165108785</v>
       </c>
       <c r="F6">
-        <v>0.5202073988343656</v>
+        <v>0.9309444904491784</v>
       </c>
       <c r="G6">
-        <v>0.00080694469035714</v>
+        <v>0.002459254980947765</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4675264329339726</v>
+        <v>0.9408010932795676</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.982413720676249</v>
+        <v>0.7973557093542638</v>
       </c>
       <c r="L6">
-        <v>0.06558583297083231</v>
+        <v>0.1498823448184048</v>
       </c>
       <c r="M6">
-        <v>0.4685310891570893</v>
+        <v>0.3020113176204049</v>
       </c>
       <c r="N6">
-        <v>0.8670544242746061</v>
+        <v>1.360502667783869</v>
       </c>
       <c r="O6">
-        <v>1.61496122290248</v>
+        <v>3.322424713759574</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1137382126821649</v>
+        <v>0.1857876532261571</v>
       </c>
       <c r="D7">
-        <v>0.04353072077856268</v>
+        <v>0.03694352072856333</v>
       </c>
       <c r="E7">
-        <v>0.06013149677154672</v>
+        <v>0.120554065598256</v>
       </c>
       <c r="F7">
-        <v>0.5302995325723714</v>
+        <v>0.9309325814076459</v>
       </c>
       <c r="G7">
-        <v>0.0008056868513014894</v>
+        <v>0.002458377841268147</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4742464776805591</v>
+        <v>0.9400071427858165</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.081511769488827</v>
+        <v>0.827192293902101</v>
       </c>
       <c r="L7">
-        <v>0.06617959587120481</v>
+        <v>0.1496762118206547</v>
       </c>
       <c r="M7">
-        <v>0.4912946577683996</v>
+        <v>0.3083356178937038</v>
       </c>
       <c r="N7">
-        <v>0.8621301342222978</v>
+        <v>1.357800717880274</v>
       </c>
       <c r="O7">
-        <v>1.634165841132642</v>
+        <v>3.318011537369784</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.128438867501032</v>
+        <v>0.1884016893764482</v>
       </c>
       <c r="D8">
-        <v>0.04884428793619833</v>
+        <v>0.03881663744353148</v>
       </c>
       <c r="E8">
-        <v>0.06509414939298708</v>
+        <v>0.1207774455372039</v>
       </c>
       <c r="F8">
-        <v>0.5773949151709417</v>
+        <v>0.9321926217295982</v>
       </c>
       <c r="G8">
-        <v>0.0008003271142282831</v>
+        <v>0.00245471179993548</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5061438830287273</v>
+        <v>0.9377148430629418</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.519201410700816</v>
+        <v>0.958895016010274</v>
       </c>
       <c r="L8">
-        <v>0.06907270226551887</v>
+        <v>0.1489290740637657</v>
       </c>
       <c r="M8">
-        <v>0.5921517049555405</v>
+        <v>0.3364503921832807</v>
       </c>
       <c r="N8">
-        <v>0.8425476288596698</v>
+        <v>1.346957222208943</v>
       </c>
       <c r="O8">
-        <v>1.727347255268796</v>
+        <v>3.302973665008153</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1583319576449611</v>
+        <v>0.1941485760460893</v>
       </c>
       <c r="D9">
-        <v>0.05919291305418284</v>
+        <v>0.04242240850384604</v>
       </c>
       <c r="E9">
-        <v>0.07563087198226981</v>
+        <v>0.1216619319857024</v>
       </c>
       <c r="F9">
-        <v>0.6802021533594598</v>
+        <v>0.939387484449739</v>
       </c>
       <c r="G9">
-        <v>0.0007904760745749668</v>
+        <v>0.002448253342972201</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.577768844852578</v>
+        <v>0.9375764390816315</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.380848874213655</v>
+        <v>1.217215515216424</v>
       </c>
       <c r="L9">
-        <v>0.07583383280204004</v>
+        <v>0.1480478085402908</v>
       </c>
       <c r="M9">
-        <v>0.7919587150728518</v>
+        <v>0.392307752522548</v>
       </c>
       <c r="N9">
-        <v>0.8123803701517573</v>
+        <v>1.329562553180118</v>
       </c>
       <c r="O9">
-        <v>1.944194612573739</v>
+        <v>3.289453847146433</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1810792270588166</v>
+        <v>0.1987467561009595</v>
       </c>
       <c r="D10">
-        <v>0.06676501915911359</v>
+        <v>0.04502966710373357</v>
       </c>
       <c r="E10">
-        <v>0.08394969490116466</v>
+        <v>0.1225834068925593</v>
       </c>
       <c r="F10">
-        <v>0.7633752540959193</v>
+        <v>0.947562164113549</v>
       </c>
       <c r="G10">
-        <v>0.0007836136608532769</v>
+        <v>0.002443949302730236</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6369504916641233</v>
+        <v>0.9401361360117306</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>4.017996037789203</v>
+        <v>1.406975846295836</v>
       </c>
       <c r="L10">
-        <v>0.08157250446443243</v>
+        <v>0.1477564030671132</v>
       </c>
       <c r="M10">
-        <v>0.9405876546829788</v>
+        <v>0.4337757134402622</v>
       </c>
       <c r="N10">
-        <v>0.795758788957194</v>
+        <v>1.319132572433233</v>
       </c>
       <c r="O10">
-        <v>2.128167219405697</v>
+        <v>3.289284894229581</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1916302735585589</v>
+        <v>0.2009197328051044</v>
       </c>
       <c r="D11">
-        <v>0.07020607530979106</v>
+        <v>0.04620652090012101</v>
       </c>
       <c r="E11">
-        <v>0.08788018963342026</v>
+        <v>0.1230615011737051</v>
       </c>
       <c r="F11">
-        <v>0.80317415395794</v>
+        <v>0.9519103036338095</v>
       </c>
       <c r="G11">
-        <v>0.0007805669113684962</v>
+        <v>0.002442086097789071</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6655428321029362</v>
+        <v>0.9418797720017693</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>4.309239625293515</v>
+        <v>1.493285298549154</v>
       </c>
       <c r="L11">
-        <v>0.08437639187304313</v>
+        <v>0.1477011895168374</v>
       </c>
       <c r="M11">
-        <v>1.008743979068072</v>
+        <v>0.4527315547516082</v>
       </c>
       <c r="N11">
-        <v>0.7895255106009245</v>
+        <v>1.314896194797669</v>
       </c>
       <c r="O11">
-        <v>2.218134556830165</v>
+        <v>3.291334726476464</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1956577506808514</v>
+        <v>0.2017542105537444</v>
       </c>
       <c r="D12">
-        <v>0.07150886577909432</v>
+        <v>0.04665082310965829</v>
       </c>
       <c r="E12">
-        <v>0.08939142840204894</v>
+        <v>0.1232510019047481</v>
       </c>
       <c r="F12">
-        <v>0.8185542806315453</v>
+        <v>0.9536474629267815</v>
       </c>
       <c r="G12">
-        <v>0.000779423418475018</v>
+        <v>0.002441394100595556</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6766321347954971</v>
+        <v>0.9426234052761657</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>4.419771599247042</v>
+        <v>1.525965125499226</v>
       </c>
       <c r="L12">
-        <v>0.08546825530054036</v>
+        <v>0.1476914047239575</v>
       </c>
       <c r="M12">
-        <v>1.034643950544563</v>
+        <v>0.4599225591839797</v>
       </c>
       <c r="N12">
-        <v>0.7873673623603707</v>
+        <v>1.313364941904808</v>
       </c>
       <c r="O12">
-        <v>2.253188063576715</v>
+        <v>3.29241720406705</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1947888902894874</v>
+        <v>0.2015739751143713</v>
       </c>
       <c r="D13">
-        <v>0.07122829409991027</v>
+        <v>0.04655519495311466</v>
       </c>
       <c r="E13">
-        <v>0.08906490966354852</v>
+        <v>0.1232098136438253</v>
       </c>
       <c r="F13">
-        <v>0.8152276970075576</v>
+        <v>0.9532693029452446</v>
       </c>
       <c r="G13">
-        <v>0.0007796692434862613</v>
+        <v>0.002441542532569271</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6742318378460368</v>
+        <v>0.9424595422183302</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4.395954975625727</v>
+        <v>1.518927131986288</v>
       </c>
       <c r="L13">
-        <v>0.08523172638480503</v>
+        <v>0.1476930173258211</v>
       </c>
       <c r="M13">
-        <v>1.029061688859116</v>
+        <v>0.4583732825998297</v>
       </c>
       <c r="N13">
-        <v>0.7878229741896234</v>
+        <v>1.313691481006003</v>
       </c>
       <c r="O13">
-        <v>2.245593489903399</v>
+        <v>3.292170445653113</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1919609579170185</v>
+        <v>0.2009881533026601</v>
       </c>
       <c r="D14">
-        <v>0.07031326045335362</v>
+        <v>0.04624310103697127</v>
       </c>
       <c r="E14">
-        <v>0.08800405141085932</v>
+        <v>0.1230769221089503</v>
       </c>
       <c r="F14">
-        <v>0.8044331296145515</v>
+        <v>0.9520514041752079</v>
       </c>
       <c r="G14">
-        <v>0.0007804726334006973</v>
+        <v>0.00244202889535087</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6664497741092319</v>
+        <v>0.9419392802033428</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4.318328002998555</v>
+        <v>1.495973971542412</v>
       </c>
       <c r="L14">
-        <v>0.08446560333740649</v>
+        <v>0.1477001615823355</v>
       </c>
       <c r="M14">
-        <v>1.01087289410718</v>
+        <v>0.4533229078258998</v>
       </c>
       <c r="N14">
-        <v>0.7893438373037043</v>
+        <v>1.314768755900218</v>
       </c>
       <c r="O14">
-        <v>2.220998200272192</v>
+        <v>3.29141764235257</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1902330249281476</v>
+        <v>0.2006308317236858</v>
       </c>
       <c r="D15">
-        <v>0.06975274933363096</v>
+        <v>0.04605175840948306</v>
       </c>
       <c r="E15">
-        <v>0.08735727648938862</v>
+        <v>0.1229966231020505</v>
       </c>
       <c r="F15">
-        <v>0.797862236087667</v>
+        <v>0.9513172095104352</v>
       </c>
       <c r="G15">
-        <v>0.0007809660505243565</v>
+        <v>0.00244232857039799</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6617178306574516</v>
+        <v>0.9416314620672708</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4.270812389814751</v>
+        <v>1.481913965614012</v>
       </c>
       <c r="L15">
-        <v>0.08400032050973039</v>
+        <v>0.1477059862623875</v>
       </c>
       <c r="M15">
-        <v>0.999743921741242</v>
+        <v>0.4502310684511741</v>
       </c>
       <c r="N15">
-        <v>0.7903020989432434</v>
+        <v>1.315438117507341</v>
       </c>
       <c r="O15">
-        <v>2.206063670594489</v>
+        <v>3.290996424359093</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1803940155161428</v>
+        <v>0.1986063762954302</v>
       </c>
       <c r="D16">
-        <v>0.06654008744440887</v>
+        <v>0.04495256976475304</v>
       </c>
       <c r="E16">
-        <v>0.08369592277804827</v>
+        <v>0.1225533465027659</v>
       </c>
       <c r="F16">
-        <v>0.7608160563725903</v>
+        <v>0.9472906774999501</v>
       </c>
       <c r="G16">
-        <v>0.0007838142369311792</v>
+        <v>0.002444072968185951</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.635117354950097</v>
+        <v>0.9400338462303495</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.998994372413449</v>
+        <v>1.401334899619656</v>
       </c>
       <c r="L16">
-        <v>0.08139334637654372</v>
+        <v>0.147761567914408</v>
       </c>
       <c r="M16">
-        <v>0.9361454675079273</v>
+        <v>0.4325387213742857</v>
       </c>
       <c r="N16">
-        <v>0.7961938183344515</v>
+        <v>1.319419647242356</v>
       </c>
       <c r="O16">
-        <v>2.122420845140709</v>
+        <v>3.289193764535355</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.17441208009744</v>
+        <v>0.1973852009508903</v>
       </c>
       <c r="D17">
-        <v>0.06456848654234193</v>
+        <v>0.04427587962678814</v>
       </c>
       <c r="E17">
-        <v>0.08148850611929248</v>
+        <v>0.1222964888066862</v>
       </c>
       <c r="F17">
-        <v>0.7386107200529466</v>
+        <v>0.9449818165253276</v>
       </c>
       <c r="G17">
-        <v>0.0007855803428306806</v>
+        <v>0.002445167315991986</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6192416629089621</v>
+        <v>0.9392021587253581</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.832631263575593</v>
+        <v>1.351897553661274</v>
       </c>
       <c r="L17">
-        <v>0.07984514962792133</v>
+        <v>0.1478154767609325</v>
       </c>
       <c r="M17">
-        <v>0.897277788252012</v>
+        <v>0.421708302803431</v>
       </c>
       <c r="N17">
-        <v>0.8001561137311839</v>
+        <v>1.32199228219968</v>
       </c>
       <c r="O17">
-        <v>2.072773043773566</v>
+        <v>3.288632897420172</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1709903757952276</v>
+        <v>0.196690463839559</v>
       </c>
       <c r="D18">
-        <v>0.06343412541944105</v>
+        <v>0.04388580070584425</v>
       </c>
       <c r="E18">
-        <v>0.08023250512886548</v>
+        <v>0.1221542968759763</v>
       </c>
       <c r="F18">
-        <v>0.7260218494665196</v>
+        <v>0.9437130603404853</v>
       </c>
       <c r="G18">
-        <v>0.0007866032536101297</v>
+        <v>0.002445805675460732</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6102662060905004</v>
+        <v>0.9387783088202042</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.73707282248472</v>
+        <v>1.323461336029879</v>
       </c>
       <c r="L18">
-        <v>0.0789727191532279</v>
+        <v>0.1478537640399651</v>
       </c>
       <c r="M18">
-        <v>0.8749725596530382</v>
+        <v>0.4154876006909447</v>
       </c>
       <c r="N18">
-        <v>0.8025593930609674</v>
+        <v>1.323519841510091</v>
       </c>
       <c r="O18">
-        <v>2.04480252723053</v>
+        <v>3.288510449629513</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1698350173722076</v>
+        <v>0.1964565537432037</v>
       </c>
       <c r="D19">
-        <v>0.06304998325656186</v>
+        <v>0.04375357890315712</v>
       </c>
       <c r="E19">
-        <v>0.07980953523487244</v>
+        <v>0.1221071060732868</v>
       </c>
       <c r="F19">
-        <v>0.7217901260723494</v>
+        <v>0.9432936526620495</v>
       </c>
       <c r="G19">
-        <v>0.0007869508278529528</v>
+        <v>0.002446023347053572</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6072533938342914</v>
+        <v>0.9386441614879999</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.704739324001252</v>
+        <v>1.313833174909917</v>
       </c>
       <c r="L19">
-        <v>0.07868036234783204</v>
+        <v>0.147867977835773</v>
       </c>
       <c r="M19">
-        <v>0.8674286925883905</v>
+        <v>0.4133828779081909</v>
       </c>
       <c r="N19">
-        <v>0.8033941144225665</v>
+        <v>1.324045268416832</v>
       </c>
       <c r="O19">
-        <v>2.03543035869788</v>
+        <v>3.288503353278202</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1750468867318205</v>
+        <v>0.1975144057993816</v>
       </c>
       <c r="D20">
-        <v>0.06477840117499767</v>
+        <v>0.04434800410694351</v>
       </c>
       <c r="E20">
-        <v>0.08172206423772721</v>
+        <v>0.1223232578801721</v>
       </c>
       <c r="F20">
-        <v>0.7409553824027313</v>
+        <v>0.9452214669076398</v>
       </c>
       <c r="G20">
-        <v>0.0007853916074981238</v>
+        <v>0.002445049897984495</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6209153774948177</v>
+        <v>0.9392850507313355</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.850327228377182</v>
+        <v>1.357160376687887</v>
       </c>
       <c r="L20">
-        <v>0.08000807349236538</v>
+        <v>0.1478089845793846</v>
       </c>
       <c r="M20">
-        <v>0.9014100128459006</v>
+        <v>0.4228603249083704</v>
       </c>
       <c r="N20">
-        <v>0.7997213796193989</v>
+        <v>1.321713469624427</v>
       </c>
       <c r="O20">
-        <v>2.077996954889215</v>
+        <v>3.28867188493831</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.192790697707224</v>
+        <v>0.2011599085507072</v>
       </c>
       <c r="D21">
-        <v>0.07058203308992717</v>
+        <v>0.04633480732501027</v>
       </c>
       <c r="E21">
-        <v>0.08831501602502101</v>
+        <v>0.1231157261742837</v>
       </c>
       <c r="F21">
-        <v>0.8075951417338416</v>
+        <v>0.9524066705490668</v>
       </c>
       <c r="G21">
-        <v>0.0007802363847039747</v>
+        <v>0.002441885671352171</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6687282623579236</v>
+        <v>0.9420898309860632</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>4.341121937108653</v>
+        <v>1.502715985228861</v>
       </c>
       <c r="L21">
-        <v>0.08468979648446862</v>
+        <v>0.1476977612494039</v>
       </c>
       <c r="M21">
-        <v>1.016212820229057</v>
+        <v>0.4548059798287767</v>
       </c>
       <c r="N21">
-        <v>0.7888915396664657</v>
+        <v>1.314450354638069</v>
       </c>
       <c r="O21">
-        <v>2.228195020148718</v>
+        <v>3.29163044391376</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2045754181246622</v>
+        <v>0.203610148042074</v>
       </c>
       <c r="D22">
-        <v>0.07437363932056229</v>
+        <v>0.04762543707266786</v>
       </c>
       <c r="E22">
-        <v>0.09275799294807996</v>
+        <v>0.1236829360141201</v>
       </c>
       <c r="F22">
-        <v>0.8529639280651651</v>
+        <v>0.9576308259235304</v>
       </c>
       <c r="G22">
-        <v>0.0007769265877906576</v>
+        <v>0.002439896664733233</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7015152045151183</v>
+        <v>0.9444088106918613</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4.663331300221557</v>
+        <v>1.597822674750375</v>
       </c>
       <c r="L22">
-        <v>0.08792615674742166</v>
+        <v>0.1476899063265975</v>
       </c>
       <c r="M22">
-        <v>1.091777938608161</v>
+        <v>0.4757589745434032</v>
       </c>
       <c r="N22">
-        <v>0.7829983612713391</v>
+        <v>1.31012877143425</v>
       </c>
       <c r="O22">
-        <v>2.332141057743968</v>
+        <v>3.295349297295871</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1982674985468691</v>
+        <v>0.2022962362895697</v>
       </c>
       <c r="D23">
-        <v>0.07235002948792157</v>
+        <v>0.04693733077021278</v>
       </c>
       <c r="E23">
-        <v>0.09037378672703511</v>
+        <v>0.1233757005609171</v>
       </c>
       <c r="F23">
-        <v>0.8285742070641788</v>
+        <v>0.9547942315540752</v>
       </c>
       <c r="G23">
-        <v>0.000778687837776445</v>
+        <v>0.002440951027388922</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6838677956133807</v>
+        <v>0.9431266467365731</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>4.491214685351679</v>
+        <v>1.547065064196147</v>
       </c>
       <c r="L23">
-        <v>0.08618189255071229</v>
+        <v>0.1476881658846239</v>
       </c>
       <c r="M23">
-        <v>1.051394122763362</v>
+        <v>0.4645692574961728</v>
       </c>
       <c r="N23">
-        <v>0.7860313122914135</v>
+        <v>1.312396405817907</v>
       </c>
       <c r="O23">
-        <v>2.276105208871144</v>
+        <v>3.293200979983339</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1747598366960261</v>
+        <v>0.1974559694415774</v>
       </c>
       <c r="D24">
-        <v>0.06468350147127921</v>
+        <v>0.04431539986991595</v>
       </c>
       <c r="E24">
-        <v>0.08161643203126445</v>
+        <v>0.1223111385146751</v>
       </c>
       <c r="F24">
-        <v>0.7398948103965353</v>
+        <v>0.9451129383205057</v>
       </c>
       <c r="G24">
-        <v>0.0007854769111959405</v>
+        <v>0.002445102953909524</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6201582202806222</v>
+        <v>0.9392474061233216</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.8423266182362</v>
+        <v>1.354781097963723</v>
       </c>
       <c r="L24">
-        <v>0.07993436081355298</v>
+        <v>0.1478118969738631</v>
       </c>
       <c r="M24">
-        <v>0.8995417094500482</v>
+        <v>0.4223394774655276</v>
       </c>
       <c r="N24">
-        <v>0.7999175334659157</v>
+        <v>1.321839369649787</v>
       </c>
       <c r="O24">
-        <v>2.075633447088705</v>
+        <v>3.288653635713018</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1501175900733642</v>
+        <v>0.192527691555938</v>
       </c>
       <c r="D25">
-        <v>0.05639974143198856</v>
+        <v>0.04145425200770347</v>
       </c>
       <c r="E25">
-        <v>0.07268560715402828</v>
+        <v>0.121374914274238</v>
       </c>
       <c r="F25">
-        <v>0.6511450272687398</v>
+        <v>0.9369344444068659</v>
       </c>
       <c r="G25">
-        <v>0.0007930731294975837</v>
+        <v>0.002449922766619953</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5573189689348439</v>
+        <v>0.9371469015441463</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.147189486826164</v>
+        <v>1.14733357697861</v>
       </c>
       <c r="L25">
-        <v>0.07387757040269349</v>
+        <v>0.1482236949568403</v>
       </c>
       <c r="M25">
-        <v>0.7376297462580084</v>
+        <v>0.3771205547802126</v>
       </c>
       <c r="N25">
-        <v>0.819608110562605</v>
+        <v>1.333854979548228</v>
       </c>
       <c r="O25">
-        <v>1.881496312497404</v>
+        <v>3.291398715648853</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_107/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_107/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1891520658211192</v>
+        <v>0.1324893633469202</v>
       </c>
       <c r="D2">
-        <v>0.03931962701445002</v>
+        <v>0.05027874866872395</v>
       </c>
       <c r="E2">
-        <v>0.1208682022721383</v>
+        <v>0.06649022589606801</v>
       </c>
       <c r="F2">
-        <v>0.9328533913881643</v>
+        <v>0.5908185950601279</v>
       </c>
       <c r="G2">
-        <v>0.002453768097947433</v>
+        <v>0.0007989204620450246</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9373883885711152</v>
+        <v>0.5153647706503222</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9945855932279528</v>
+        <v>2.637948209601433</v>
       </c>
       <c r="L2">
-        <v>0.1487661459673681</v>
+        <v>0.06992642768352297</v>
       </c>
       <c r="M2">
-        <v>0.3441175607624842</v>
+        <v>0.6195954282642688</v>
       </c>
       <c r="N2">
-        <v>1.344281385537869</v>
+        <v>0.837780821295425</v>
       </c>
       <c r="O2">
-        <v>3.299978809398993</v>
+        <v>1.754769366258586</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1870229643982242</v>
+        <v>0.1208192820495952</v>
       </c>
       <c r="D3">
-        <v>0.03785575005071706</v>
+        <v>0.04611275652852243</v>
       </c>
       <c r="E3">
-        <v>0.1206388702552061</v>
+        <v>0.0625000975337322</v>
       </c>
       <c r="F3">
-        <v>0.9312951537723677</v>
+        <v>0.5526469432719594</v>
       </c>
       <c r="G3">
-        <v>0.002456560600396716</v>
+        <v>0.0008030508014929368</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9386655667246231</v>
+        <v>0.4892838275484763</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8910802721925393</v>
+        <v>2.293755352854674</v>
       </c>
       <c r="L3">
-        <v>0.149282967225389</v>
+        <v>0.06753014025633419</v>
       </c>
       <c r="M3">
-        <v>0.3219362935698129</v>
+        <v>0.5401406696371467</v>
       </c>
       <c r="N3">
-        <v>1.352335726754973</v>
+        <v>0.8522167711098589</v>
       </c>
       <c r="O3">
-        <v>3.309875331244683</v>
+        <v>1.677727282272059</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1857942192809929</v>
+        <v>0.1137766413270782</v>
       </c>
       <c r="D4">
-        <v>0.03694852640041546</v>
+        <v>0.04354485828351073</v>
       </c>
       <c r="E4">
-        <v>0.1205543960241826</v>
+        <v>0.06014423077454367</v>
       </c>
       <c r="F4">
-        <v>0.9309331599552593</v>
+        <v>0.530418968306428</v>
       </c>
       <c r="G4">
-        <v>0.00245836768979845</v>
+        <v>0.0008056722387028831</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9399985151810881</v>
+        <v>0.4743262926833651</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8275414444452167</v>
+        <v>2.082671465401177</v>
       </c>
       <c r="L4">
-        <v>0.1496738887258466</v>
+        <v>0.06618668820633644</v>
       </c>
       <c r="M4">
-        <v>0.3084097340383778</v>
+        <v>0.4915612163139471</v>
       </c>
       <c r="N4">
-        <v>1.357769693075021</v>
+        <v>0.862073666168321</v>
       </c>
       <c r="O4">
-        <v>3.317962324230137</v>
+        <v>1.634395004667653</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.185313306601202</v>
+        <v>0.1109357288154911</v>
       </c>
       <c r="D5">
-        <v>0.03657673512703496</v>
+        <v>0.04249576498217777</v>
       </c>
       <c r="E5">
-        <v>0.1205341549926278</v>
+        <v>0.05920663835020434</v>
       </c>
       <c r="F5">
-        <v>0.930935135522077</v>
+        <v>0.5216471656732438</v>
       </c>
       <c r="G5">
-        <v>0.002459127417911109</v>
+        <v>0.0008067623479306909</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.940679658659576</v>
+        <v>0.46848209946792</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8016539523775918</v>
+        <v>1.99668951169906</v>
       </c>
       <c r="L5">
-        <v>0.1498517011964893</v>
+        <v>0.06566984749065696</v>
       </c>
       <c r="M5">
-        <v>0.3029212375434724</v>
+        <v>0.4718085736505984</v>
       </c>
       <c r="N5">
-        <v>1.360107106320804</v>
+        <v>0.8663327742037765</v>
       </c>
       <c r="O5">
-        <v>3.321763091946536</v>
+        <v>1.617681066105234</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1852346498189803</v>
+        <v>0.1104656974504934</v>
       </c>
       <c r="D6">
-        <v>0.03651487385069174</v>
+        <v>0.04232139941937163</v>
       </c>
       <c r="E6">
-        <v>0.12053165108785</v>
+        <v>0.05905227285965786</v>
       </c>
       <c r="F6">
-        <v>0.9309444904491784</v>
+        <v>0.5202073988343727</v>
       </c>
       <c r="G6">
-        <v>0.002459254980947765</v>
+        <v>0.0008069446902986277</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9408010932795676</v>
+        <v>0.4675264329339726</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7973557093542638</v>
+        <v>1.982413720676277</v>
       </c>
       <c r="L6">
-        <v>0.1498823448184048</v>
+        <v>0.06558583297080034</v>
       </c>
       <c r="M6">
-        <v>0.3020113176204049</v>
+        <v>0.4685310891570893</v>
       </c>
       <c r="N6">
-        <v>1.360502667783869</v>
+        <v>0.8670544242745919</v>
       </c>
       <c r="O6">
-        <v>3.322424713759574</v>
+        <v>1.61496122290248</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1857876532261571</v>
+        <v>0.1137382126821649</v>
       </c>
       <c r="D7">
-        <v>0.03694352072856333</v>
+        <v>0.04353072077849873</v>
       </c>
       <c r="E7">
-        <v>0.120554065598256</v>
+        <v>0.0601314967715787</v>
       </c>
       <c r="F7">
-        <v>0.9309325814076459</v>
+        <v>0.5302995325723643</v>
       </c>
       <c r="G7">
-        <v>0.002458377841268147</v>
+        <v>0.0008056868512872353</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9400071427858165</v>
+        <v>0.4742464776805377</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.827192293902101</v>
+        <v>2.081511769488941</v>
       </c>
       <c r="L7">
-        <v>0.1496762118206547</v>
+        <v>0.06617959587106981</v>
       </c>
       <c r="M7">
-        <v>0.3083356178937038</v>
+        <v>0.4912946577684139</v>
       </c>
       <c r="N7">
-        <v>1.357800717880274</v>
+        <v>0.8621301342223617</v>
       </c>
       <c r="O7">
-        <v>3.318011537369784</v>
+        <v>1.634165841132614</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1884016893764482</v>
+        <v>0.1284388675008188</v>
       </c>
       <c r="D8">
-        <v>0.03881663744353148</v>
+        <v>0.04884428793626228</v>
       </c>
       <c r="E8">
-        <v>0.1207774455372039</v>
+        <v>0.06509414939301905</v>
       </c>
       <c r="F8">
-        <v>0.9321926217295982</v>
+        <v>0.5773949151709417</v>
       </c>
       <c r="G8">
-        <v>0.00245471179993548</v>
+        <v>0.0008003271141702619</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9377148430629418</v>
+        <v>0.5061438830287273</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.958895016010274</v>
+        <v>2.519201410700816</v>
       </c>
       <c r="L8">
-        <v>0.1489290740637657</v>
+        <v>0.06907270226540163</v>
       </c>
       <c r="M8">
-        <v>0.3364503921832807</v>
+        <v>0.5921517049555334</v>
       </c>
       <c r="N8">
-        <v>1.346957222208943</v>
+        <v>0.8425476288596769</v>
       </c>
       <c r="O8">
-        <v>3.302973665008153</v>
+        <v>1.727347255268739</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1941485760460893</v>
+        <v>0.158331957645089</v>
       </c>
       <c r="D9">
-        <v>0.04242240850384604</v>
+        <v>0.05919291305435337</v>
       </c>
       <c r="E9">
-        <v>0.1216619319857024</v>
+        <v>0.07563087198226981</v>
       </c>
       <c r="F9">
-        <v>0.939387484449739</v>
+        <v>0.680202153359474</v>
       </c>
       <c r="G9">
-        <v>0.002448253342972201</v>
+        <v>0.0007904760746272133</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9375764390816315</v>
+        <v>0.5777688448525637</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.217215515216424</v>
+        <v>3.380848874213655</v>
       </c>
       <c r="L9">
-        <v>0.1480478085402908</v>
+        <v>0.07583383280209688</v>
       </c>
       <c r="M9">
-        <v>0.392307752522548</v>
+        <v>0.7919587150728447</v>
       </c>
       <c r="N9">
-        <v>1.329562553180118</v>
+        <v>0.8123803701517645</v>
       </c>
       <c r="O9">
-        <v>3.289453847146433</v>
+        <v>1.944194612573767</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1987467561009595</v>
+        <v>0.1810792270587172</v>
       </c>
       <c r="D10">
-        <v>0.04502966710373357</v>
+        <v>0.0667650191591207</v>
       </c>
       <c r="E10">
-        <v>0.1225834068925593</v>
+        <v>0.08394969490116821</v>
       </c>
       <c r="F10">
-        <v>0.947562164113549</v>
+        <v>0.7633752540959335</v>
       </c>
       <c r="G10">
-        <v>0.002443949302730236</v>
+        <v>0.0007836136608819213</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9401361360117306</v>
+        <v>0.6369504916641233</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.406975846295836</v>
+        <v>4.017996037789146</v>
       </c>
       <c r="L10">
-        <v>0.1477564030671132</v>
+        <v>0.08157250446443243</v>
       </c>
       <c r="M10">
-        <v>0.4337757134402622</v>
+        <v>0.9405876546829788</v>
       </c>
       <c r="N10">
-        <v>1.319132572433233</v>
+        <v>0.795758788957194</v>
       </c>
       <c r="O10">
-        <v>3.289284894229581</v>
+        <v>2.128167219405668</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2009197328051044</v>
+        <v>0.191630273558431</v>
       </c>
       <c r="D11">
-        <v>0.04620652090012101</v>
+        <v>0.07020607530992606</v>
       </c>
       <c r="E11">
-        <v>0.1230615011737051</v>
+        <v>0.08788018963340249</v>
       </c>
       <c r="F11">
-        <v>0.9519103036338095</v>
+        <v>0.8031741539579684</v>
       </c>
       <c r="G11">
-        <v>0.002442086097789071</v>
+        <v>0.0007805669113409956</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9418797720017693</v>
+        <v>0.6655428321029291</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.493285298549154</v>
+        <v>4.309239625293571</v>
       </c>
       <c r="L11">
-        <v>0.1477011895168374</v>
+        <v>0.08437639187293655</v>
       </c>
       <c r="M11">
-        <v>0.4527315547516082</v>
+        <v>1.008743979068079</v>
       </c>
       <c r="N11">
-        <v>1.314896194797669</v>
+        <v>0.7895255106009245</v>
       </c>
       <c r="O11">
-        <v>3.291334726476464</v>
+        <v>2.218134556830194</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2017542105537444</v>
+        <v>0.1956577506807378</v>
       </c>
       <c r="D12">
-        <v>0.04665082310965829</v>
+        <v>0.07150886577897353</v>
       </c>
       <c r="E12">
-        <v>0.1232510019047481</v>
+        <v>0.08939142840204539</v>
       </c>
       <c r="F12">
-        <v>0.9536474629267815</v>
+        <v>0.8185542806315453</v>
       </c>
       <c r="G12">
-        <v>0.002441394100595556</v>
+        <v>0.0007794234185038801</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9426234052761657</v>
+        <v>0.6766321347954971</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.525965125499226</v>
+        <v>4.419771599247156</v>
       </c>
       <c r="L12">
-        <v>0.1476914047239575</v>
+        <v>0.08546825530054036</v>
       </c>
       <c r="M12">
-        <v>0.4599225591839797</v>
+        <v>1.034643950544549</v>
       </c>
       <c r="N12">
-        <v>1.313364941904808</v>
+        <v>0.7873673623604276</v>
       </c>
       <c r="O12">
-        <v>3.29241720406705</v>
+        <v>2.253188063576772</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2015739751143713</v>
+        <v>0.1947888902894874</v>
       </c>
       <c r="D13">
-        <v>0.04655519495311466</v>
+        <v>0.07122829410013054</v>
       </c>
       <c r="E13">
-        <v>0.1232098136438253</v>
+        <v>0.08906490966356628</v>
       </c>
       <c r="F13">
-        <v>0.9532693029452446</v>
+        <v>0.8152276970075576</v>
       </c>
       <c r="G13">
-        <v>0.002441542532569271</v>
+        <v>0.0007796692434860363</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9424595422183302</v>
+        <v>0.6742318378460368</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.518927131986288</v>
+        <v>4.395954975625784</v>
       </c>
       <c r="L13">
-        <v>0.1476930173258211</v>
+        <v>0.08523172638475529</v>
       </c>
       <c r="M13">
-        <v>0.4583732825998297</v>
+        <v>1.02906168885913</v>
       </c>
       <c r="N13">
-        <v>1.313691481006003</v>
+        <v>0.7878229741896803</v>
       </c>
       <c r="O13">
-        <v>3.292170445653113</v>
+        <v>2.245593489903456</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2009881533026601</v>
+        <v>0.1919609579171038</v>
       </c>
       <c r="D14">
-        <v>0.04624310103697127</v>
+        <v>0.07031326045335362</v>
       </c>
       <c r="E14">
-        <v>0.1230769221089503</v>
+        <v>0.08800405141084866</v>
       </c>
       <c r="F14">
-        <v>0.9520514041752079</v>
+        <v>0.8044331296145515</v>
       </c>
       <c r="G14">
-        <v>0.00244202889535087</v>
+        <v>0.000780472633401291</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9419392802033428</v>
+        <v>0.6664497741092319</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.495973971542412</v>
+        <v>4.318328002998669</v>
       </c>
       <c r="L14">
-        <v>0.1477001615823355</v>
+        <v>0.08446560333744912</v>
       </c>
       <c r="M14">
-        <v>0.4533229078258998</v>
+        <v>1.01087289410718</v>
       </c>
       <c r="N14">
-        <v>1.314768755900218</v>
+        <v>0.7893438373037043</v>
       </c>
       <c r="O14">
-        <v>3.29141764235257</v>
+        <v>2.220998200272192</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2006308317236858</v>
+        <v>0.1902330249282755</v>
       </c>
       <c r="D15">
-        <v>0.04605175840948306</v>
+        <v>0.06975274933375886</v>
       </c>
       <c r="E15">
-        <v>0.1229966231020505</v>
+        <v>0.08735727648939218</v>
       </c>
       <c r="F15">
-        <v>0.9513172095104352</v>
+        <v>0.7978622360876528</v>
       </c>
       <c r="G15">
-        <v>0.00244232857039799</v>
+        <v>0.0007809660504960493</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9416314620672708</v>
+        <v>0.6617178306574587</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.481913965614012</v>
+        <v>4.270812389814751</v>
       </c>
       <c r="L15">
-        <v>0.1477059862623875</v>
+        <v>0.08400032050967354</v>
       </c>
       <c r="M15">
-        <v>0.4502310684511741</v>
+        <v>0.9997439217412563</v>
       </c>
       <c r="N15">
-        <v>1.315438117507341</v>
+        <v>0.7903020989432434</v>
       </c>
       <c r="O15">
-        <v>3.290996424359093</v>
+        <v>2.206063670594489</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1986063762954302</v>
+        <v>0.180394015516157</v>
       </c>
       <c r="D16">
-        <v>0.04495256976475304</v>
+        <v>0.06654008744440887</v>
       </c>
       <c r="E16">
-        <v>0.1225533465027659</v>
+        <v>0.08369592277804827</v>
       </c>
       <c r="F16">
-        <v>0.9472906774999501</v>
+        <v>0.7608160563725903</v>
       </c>
       <c r="G16">
-        <v>0.002444072968185951</v>
+        <v>0.0007838142369027864</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9400338462303495</v>
+        <v>0.635117354950097</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.401334899619656</v>
+        <v>3.998994372413449</v>
       </c>
       <c r="L16">
-        <v>0.147761567914408</v>
+        <v>0.0813933463765224</v>
       </c>
       <c r="M16">
-        <v>0.4325387213742857</v>
+        <v>0.9361454675079273</v>
       </c>
       <c r="N16">
-        <v>1.319419647242356</v>
+        <v>0.7961938183344586</v>
       </c>
       <c r="O16">
-        <v>3.289193764535355</v>
+        <v>2.122420845140624</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1973852009508903</v>
+        <v>0.1744120800974542</v>
       </c>
       <c r="D17">
-        <v>0.04427587962678814</v>
+        <v>0.06456848654223535</v>
       </c>
       <c r="E17">
-        <v>0.1222964888066862</v>
+        <v>0.08148850611931024</v>
       </c>
       <c r="F17">
-        <v>0.9449818165253276</v>
+        <v>0.7386107200529466</v>
       </c>
       <c r="G17">
-        <v>0.002445167315991986</v>
+        <v>0.0007855803428035896</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9392021587253581</v>
+        <v>0.6192416629089479</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.351897553661274</v>
+        <v>3.832631263575593</v>
       </c>
       <c r="L17">
-        <v>0.1478154767609325</v>
+        <v>0.07984514962780764</v>
       </c>
       <c r="M17">
-        <v>0.421708302803431</v>
+        <v>0.897277788252012</v>
       </c>
       <c r="N17">
-        <v>1.32199228219968</v>
+        <v>0.8001561137311839</v>
       </c>
       <c r="O17">
-        <v>3.288632897420172</v>
+        <v>2.072773043773566</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.196690463839559</v>
+        <v>0.1709903757955686</v>
       </c>
       <c r="D18">
-        <v>0.04388580070584425</v>
+        <v>0.06343412541949789</v>
       </c>
       <c r="E18">
-        <v>0.1221542968759763</v>
+        <v>0.08023250512887614</v>
       </c>
       <c r="F18">
-        <v>0.9437130603404853</v>
+        <v>0.7260218494665338</v>
       </c>
       <c r="G18">
-        <v>0.002445805675460732</v>
+        <v>0.0007866032536653936</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9387783088202042</v>
+        <v>0.6102662060904862</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.323461336029879</v>
+        <v>3.737072822484834</v>
       </c>
       <c r="L18">
-        <v>0.1478537640399651</v>
+        <v>0.07897271915322079</v>
       </c>
       <c r="M18">
-        <v>0.4154876006909447</v>
+        <v>0.8749725596530382</v>
       </c>
       <c r="N18">
-        <v>1.323519841510091</v>
+        <v>0.8025593930610171</v>
       </c>
       <c r="O18">
-        <v>3.288510449629513</v>
+        <v>2.044802527230587</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1964565537432037</v>
+        <v>0.1698350173722076</v>
       </c>
       <c r="D19">
-        <v>0.04375357890315712</v>
+        <v>0.06304998325654765</v>
       </c>
       <c r="E19">
-        <v>0.1221071060732868</v>
+        <v>0.07980953523491152</v>
       </c>
       <c r="F19">
-        <v>0.9432936526620495</v>
+        <v>0.7217901260723494</v>
       </c>
       <c r="G19">
-        <v>0.002446023347053572</v>
+        <v>0.0007869508278820432</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9386441614879999</v>
+        <v>0.6072533938342985</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.313833174909917</v>
+        <v>3.704739324001366</v>
       </c>
       <c r="L19">
-        <v>0.147867977835773</v>
+        <v>0.07868036234783204</v>
       </c>
       <c r="M19">
-        <v>0.4133828779081909</v>
+        <v>0.8674286925883905</v>
       </c>
       <c r="N19">
-        <v>1.324045268416832</v>
+        <v>0.8033941144225736</v>
       </c>
       <c r="O19">
-        <v>3.288503353278202</v>
+        <v>2.035430358697909</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1975144057993816</v>
+        <v>0.1750468867318062</v>
       </c>
       <c r="D20">
-        <v>0.04434800410694351</v>
+        <v>0.0647784011751753</v>
       </c>
       <c r="E20">
-        <v>0.1223232578801721</v>
+        <v>0.08172206423773076</v>
       </c>
       <c r="F20">
-        <v>0.9452214669076398</v>
+        <v>0.7409553824027455</v>
       </c>
       <c r="G20">
-        <v>0.002445049897984495</v>
+        <v>0.0007853916075261706</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9392850507313355</v>
+        <v>0.620915377494839</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.357160376687887</v>
+        <v>3.850327228377296</v>
       </c>
       <c r="L20">
-        <v>0.1478089845793846</v>
+        <v>0.08000807349228722</v>
       </c>
       <c r="M20">
-        <v>0.4228603249083704</v>
+        <v>0.9014100128459077</v>
       </c>
       <c r="N20">
-        <v>1.321713469624427</v>
+        <v>0.799721379619406</v>
       </c>
       <c r="O20">
-        <v>3.28867188493831</v>
+        <v>2.077996954889329</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2011599085507072</v>
+        <v>0.1927906977073803</v>
       </c>
       <c r="D21">
-        <v>0.04633480732501027</v>
+        <v>0.07058203309003375</v>
       </c>
       <c r="E21">
-        <v>0.1231157261742837</v>
+        <v>0.08831501602502101</v>
       </c>
       <c r="F21">
-        <v>0.9524066705490668</v>
+        <v>0.8075951417338416</v>
       </c>
       <c r="G21">
-        <v>0.002441885671352171</v>
+        <v>0.0007802363847338216</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9420898309860632</v>
+        <v>0.6687282623579094</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.502715985228861</v>
+        <v>4.341121937108653</v>
       </c>
       <c r="L21">
-        <v>0.1476977612494039</v>
+        <v>0.0846897964844473</v>
       </c>
       <c r="M21">
-        <v>0.4548059798287767</v>
+        <v>1.01621282022905</v>
       </c>
       <c r="N21">
-        <v>1.314450354638069</v>
+        <v>0.7888915396664657</v>
       </c>
       <c r="O21">
-        <v>3.29163044391376</v>
+        <v>2.228195020148718</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.203610148042074</v>
+        <v>0.2045754181246622</v>
       </c>
       <c r="D22">
-        <v>0.04762543707266786</v>
+        <v>0.07437363932032781</v>
       </c>
       <c r="E22">
-        <v>0.1236829360141201</v>
+        <v>0.09275799294808706</v>
       </c>
       <c r="F22">
-        <v>0.9576308259235304</v>
+        <v>0.8529639280651935</v>
       </c>
       <c r="G22">
-        <v>0.002439896664733233</v>
+        <v>0.0007769265877603803</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9444088106918613</v>
+        <v>0.7015152045151183</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.597822674750375</v>
+        <v>4.663331300221614</v>
       </c>
       <c r="L22">
-        <v>0.1476899063265975</v>
+        <v>0.08792615674741455</v>
       </c>
       <c r="M22">
-        <v>0.4757589745434032</v>
+        <v>1.091777938608161</v>
       </c>
       <c r="N22">
-        <v>1.31012877143425</v>
+        <v>0.7829983612713534</v>
       </c>
       <c r="O22">
-        <v>3.295349297295871</v>
+        <v>2.332141057744025</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2022962362895697</v>
+        <v>0.1982674985467554</v>
       </c>
       <c r="D23">
-        <v>0.04693733077021278</v>
+        <v>0.07235002948791447</v>
       </c>
       <c r="E23">
-        <v>0.1233757005609171</v>
+        <v>0.090373786727028</v>
       </c>
       <c r="F23">
-        <v>0.9547942315540752</v>
+        <v>0.8285742070641646</v>
       </c>
       <c r="G23">
-        <v>0.002440951027388922</v>
+        <v>0.0007786878378061384</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9431266467365731</v>
+        <v>0.6838677956133878</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.547065064196147</v>
+        <v>4.491214685351849</v>
       </c>
       <c r="L23">
-        <v>0.1476881658846239</v>
+        <v>0.08618189255074782</v>
       </c>
       <c r="M23">
-        <v>0.4645692574961728</v>
+        <v>1.051394122763362</v>
       </c>
       <c r="N23">
-        <v>1.312396405817907</v>
+        <v>0.7860313122914135</v>
       </c>
       <c r="O23">
-        <v>3.293200979983339</v>
+        <v>2.276105208871201</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1974559694415774</v>
+        <v>0.1747598366956851</v>
       </c>
       <c r="D24">
-        <v>0.04431539986991595</v>
+        <v>0.06468350147115842</v>
       </c>
       <c r="E24">
-        <v>0.1223111385146751</v>
+        <v>0.08161643203125024</v>
       </c>
       <c r="F24">
-        <v>0.9451129383205057</v>
+        <v>0.7398948103965353</v>
       </c>
       <c r="G24">
-        <v>0.002445102953909524</v>
+        <v>0.000785476911167112</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9392474061233216</v>
+        <v>0.6201582202806009</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.354781097963723</v>
+        <v>3.842326618236314</v>
       </c>
       <c r="L24">
-        <v>0.1478118969738631</v>
+        <v>0.07993436081351035</v>
       </c>
       <c r="M24">
-        <v>0.4223394774655276</v>
+        <v>0.899541709450034</v>
       </c>
       <c r="N24">
-        <v>1.321839369649787</v>
+        <v>0.7999175334659085</v>
       </c>
       <c r="O24">
-        <v>3.288653635713018</v>
+        <v>2.075633447088677</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.192527691555938</v>
+        <v>0.1501175900733642</v>
       </c>
       <c r="D25">
-        <v>0.04145425200770347</v>
+        <v>0.05639974143227988</v>
       </c>
       <c r="E25">
-        <v>0.121374914274238</v>
+        <v>0.07268560715404604</v>
       </c>
       <c r="F25">
-        <v>0.9369344444068659</v>
+        <v>0.6511450272687256</v>
       </c>
       <c r="G25">
-        <v>0.002449922766619953</v>
+        <v>0.000793073129522923</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9371469015441463</v>
+        <v>0.5573189689348439</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.14733357697861</v>
+        <v>3.147189486826164</v>
       </c>
       <c r="L25">
-        <v>0.1482236949568403</v>
+        <v>0.07387757040263665</v>
       </c>
       <c r="M25">
-        <v>0.3771205547802126</v>
+        <v>0.7376297462580084</v>
       </c>
       <c r="N25">
-        <v>1.333854979548228</v>
+        <v>0.8196081105625908</v>
       </c>
       <c r="O25">
-        <v>3.291398715648853</v>
+        <v>1.881496312497376</v>
       </c>
     </row>
   </sheetData>
